--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">RMSE_names</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">186.857794412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASSO Regression Model with increased lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195.552077733575</t>
   </si>
   <si>
     <t xml:space="preserve">Ridge Regression Model</t>
@@ -567,6 +573,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">RMSE_names</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">195.552077733575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LASSO Regression Model only using observations with price under $1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.933246436757</t>
   </si>
   <si>
     <t xml:space="preserve">Ridge Regression Model</t>
@@ -581,6 +587,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
